--- a/PhraseActivity/Resources/Actividad-escritura-palabra.xlsx
+++ b/PhraseActivity/Resources/Actividad-escritura-palabra.xlsx
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Eres tanta gente, que dime</t>
   </si>
@@ -124,9 +124,6 @@
     <t>Nivel</t>
   </si>
   <si>
-    <t>Fase traducida</t>
-  </si>
-  <si>
     <t>Traduccion 1</t>
   </si>
   <si>
@@ -143,6 +140,30 @@
   </si>
   <si>
     <t>Traduccion 6</t>
+  </si>
+  <si>
+    <t>Traduccion 7</t>
+  </si>
+  <si>
+    <t>Traduccion 8</t>
+  </si>
+  <si>
+    <t>Traduccion 9</t>
+  </si>
+  <si>
+    <t>Traduccion 10</t>
+  </si>
+  <si>
+    <t>Traduccion 11</t>
+  </si>
+  <si>
+    <t>Traduccion 12</t>
+  </si>
+  <si>
+    <t>Traduccion 13</t>
+  </si>
+  <si>
+    <t>Frase traducida</t>
   </si>
 </sst>
 </file>
@@ -525,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +567,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -557,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -566,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -575,7 +596,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -584,7 +605,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -595,7 +616,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -606,7 +627,84 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
